--- a/codepdf/allpackage.xlsx
+++ b/codepdf/allpackage.xlsx
@@ -97,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现mysql通信协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Netty实现高性能网络前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嵌入式存储引擎模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现SQL解析模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储引擎接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +118,78 @@
   </si>
   <si>
     <t>所有常用的工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信协议</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Netty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现高性能网络前端</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析模块</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,23 +264,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,134 +562,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="175" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
